--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2340,15 +2340,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.05078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.06640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2359,27 +2359,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="688">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -585,15 +585,12 @@
     <t>Composition.extension:basedOn-order-or-requisition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
+    <t>Identifier
+Reference(ServiceRequest)</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Composition.extension:basedOn-order-or-requisition.value[x]:valueReference</t>
@@ -1059,7 +1056,7 @@
     <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1919,9 +1916,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-codeableconcept}
 </t>
-  </si>
-  <si>
-    <t>Concept - reference to a terminology or just  text</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-lab-study-types</t>
@@ -4690,7 +4684,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>172</v>
@@ -4725,13 +4719,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>168</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4753,7 +4747,7 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>170</v>
@@ -4842,13 +4836,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>79</v>
@@ -4870,13 +4864,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4959,7 +4953,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>150</v>
@@ -5074,7 +5068,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>157</v>
@@ -5189,7 +5183,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>161</v>
@@ -5232,7 +5226,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>79</v>
@@ -5306,7 +5300,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>168</v>
@@ -5332,7 +5326,7 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>170</v>
@@ -5421,10 +5415,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5536,14 +5530,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5565,13 +5559,13 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5653,10 +5647,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5682,13 +5676,13 @@
         <v>151</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5738,16 +5732,16 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>103</v>
@@ -5770,10 +5764,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5799,13 +5793,13 @@
         <v>105</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5831,31 +5825,31 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5887,10 +5881,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5913,16 +5907,16 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5972,7 +5966,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5990,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -6004,10 +5998,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6033,13 +6027,13 @@
         <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6089,7 +6083,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6121,14 +6115,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6150,16 +6144,16 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6208,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6240,10 +6234,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6266,16 +6260,16 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6325,7 +6319,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6340,27 +6334,27 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6472,14 +6466,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6501,13 +6495,13 @@
         <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6589,10 +6583,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6618,16 +6612,16 @@
         <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6652,31 +6646,31 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6694,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6708,10 +6702,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6734,19 +6728,19 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6771,31 +6765,31 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6813,7 +6807,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6827,10 +6821,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6856,16 +6850,16 @@
         <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6875,46 +6869,46 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="T38" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="T38" t="s" s="2">
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6932,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6946,10 +6940,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6975,13 +6969,13 @@
         <v>151</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6995,61 +6989,61 @@
         <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -7063,10 +7057,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7089,13 +7083,13 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7146,7 +7140,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7164,7 +7158,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -7178,10 +7172,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7204,16 +7198,16 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7263,7 +7257,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7281,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7295,10 +7289,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7324,16 +7318,16 @@
         <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7343,29 +7337,29 @@
         <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="T42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7382,7 +7376,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>91</v>
@@ -7397,27 +7391,27 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7440,19 +7434,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7480,11 +7474,11 @@
         <v>115</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7501,7 +7495,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>91</v>
@@ -7516,27 +7510,27 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7559,19 +7553,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7596,19 +7590,19 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7618,7 +7612,7 @@
         <v>140</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7633,30 +7627,30 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>79</v>
@@ -7678,19 +7672,19 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="O45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7715,11 +7709,11 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7737,7 +7731,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7755,7 +7749,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7769,13 +7763,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7797,19 +7791,19 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="O46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7834,11 +7828,11 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7856,7 +7850,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7874,7 +7868,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7888,10 +7882,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7914,19 +7908,19 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7975,7 +7969,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7993,24 +7987,24 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8122,14 +8116,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8151,13 +8145,13 @@
         <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8239,10 +8233,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8268,13 +8262,13 @@
         <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8324,16 +8318,16 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -8356,10 +8350,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8385,13 +8379,13 @@
         <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8417,31 +8411,31 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8473,10 +8467,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8499,16 +8493,16 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8558,7 +8552,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8576,7 +8570,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8590,10 +8584,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8619,13 +8613,13 @@
         <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8675,7 +8669,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8707,10 +8701,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8733,17 +8727,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8792,7 +8786,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8807,27 +8801,27 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8850,19 +8844,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8911,7 +8905,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>91</v>
@@ -8926,27 +8920,27 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8969,17 +8963,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9028,7 +9022,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>91</v>
@@ -9043,27 +9037,27 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9175,14 +9169,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9204,13 +9198,13 @@
         <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9292,10 +9286,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9321,13 +9315,13 @@
         <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9377,16 +9371,16 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9409,10 +9403,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9438,13 +9432,13 @@
         <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9470,31 +9464,31 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z60" t="s" s="2">
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9526,10 +9520,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9552,16 +9546,16 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9611,7 +9605,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9629,7 +9623,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9643,10 +9637,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9672,13 +9666,13 @@
         <v>151</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9728,7 +9722,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9760,10 +9754,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9789,13 +9783,13 @@
         <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9845,7 +9839,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>91</v>
@@ -9863,13 +9857,13 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9877,10 +9871,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9906,13 +9900,13 @@
         <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9938,14 +9932,14 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9962,7 +9956,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9980,13 +9974,13 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9994,10 +9988,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10020,19 +10014,19 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10081,7 +10075,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10099,13 +10093,13 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10113,10 +10107,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10228,14 +10222,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10257,13 +10251,13 @@
         <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10345,14 +10339,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10374,16 +10368,16 @@
         <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10432,7 +10426,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10464,10 +10458,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10493,14 +10487,14 @@
         <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10525,14 +10519,14 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10549,7 +10543,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>91</v>
@@ -10567,10 +10561,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10581,10 +10575,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10607,17 +10601,17 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10666,7 +10660,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10684,10 +10678,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10698,10 +10692,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10724,17 +10718,17 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10783,7 +10777,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10801,24 +10795,24 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10930,14 +10924,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10959,13 +10953,13 @@
         <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11047,10 +11041,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11076,13 +11070,13 @@
         <v>151</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11132,16 +11126,16 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>103</v>
@@ -11164,10 +11158,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11193,13 +11187,13 @@
         <v>105</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11225,31 +11219,31 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z75" t="s" s="2">
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11281,10 +11275,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11307,16 +11301,16 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11366,7 +11360,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11384,7 +11378,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11398,10 +11392,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11427,13 +11421,13 @@
         <v>151</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11483,7 +11477,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11515,10 +11509,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11541,19 +11535,19 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11602,7 +11596,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11620,13 +11614,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11634,10 +11628,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11749,14 +11743,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11778,13 +11772,13 @@
         <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11866,10 +11860,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11895,13 +11889,13 @@
         <v>151</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11951,16 +11945,16 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>103</v>
@@ -11983,10 +11977,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12012,13 +12006,13 @@
         <v>105</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12044,31 +12038,31 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z82" t="s" s="2">
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12100,10 +12094,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12126,16 +12120,16 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12185,7 +12179,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12203,7 +12197,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -12217,10 +12211,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12246,13 +12240,13 @@
         <v>151</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12302,7 +12296,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12334,10 +12328,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12360,16 +12354,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12419,7 +12413,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12437,13 +12431,13 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12451,10 +12445,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12566,14 +12560,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12595,13 +12589,13 @@
         <v>136</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12683,14 +12677,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12712,16 +12706,16 @@
         <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N88" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12770,7 +12764,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12802,10 +12796,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12831,13 +12825,13 @@
         <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12863,14 +12857,14 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12887,7 +12881,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>91</v>
@@ -12905,13 +12899,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12919,10 +12913,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12945,13 +12939,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13002,7 +12996,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>91</v>
@@ -13020,13 +13014,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13034,10 +13028,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13060,19 +13054,19 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13121,7 +13115,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13139,13 +13133,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13153,10 +13147,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13268,14 +13262,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13297,13 +13291,13 @@
         <v>136</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13385,14 +13379,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13414,16 +13408,16 @@
         <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N94" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13472,7 +13466,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13504,10 +13498,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13530,16 +13524,16 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13565,14 +13559,14 @@
         <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13589,7 +13583,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13607,13 +13601,13 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13621,10 +13615,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13647,13 +13641,13 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13704,7 +13698,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13722,13 +13716,13 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13736,10 +13730,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13762,13 +13756,13 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13819,7 +13813,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13837,7 +13831,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>155</v>
@@ -13851,10 +13845,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13877,13 +13871,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13922,7 +13916,7 @@
         <v>79</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -13932,7 +13926,7 @@
         <v>140</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13944,16 +13938,16 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13964,10 +13958,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14079,14 +14073,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14108,13 +14102,13 @@
         <v>136</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14196,14 +14190,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14225,16 +14219,16 @@
         <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M101" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N101" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -14283,7 +14277,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14315,14 +14309,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14344,16 +14338,16 @@
         <v>151</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14402,7 +14396,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14420,10 +14414,10 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14434,10 +14428,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14460,19 +14454,19 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14497,14 +14491,14 @@
         <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14521,7 +14515,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14539,10 +14533,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14553,10 +14547,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14579,17 +14573,17 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -14638,7 +14632,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14656,24 +14650,24 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14696,16 +14690,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14755,7 +14749,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14776,7 +14770,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14787,10 +14781,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14816,13 +14810,13 @@
         <v>121</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14872,7 +14866,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14881,7 +14875,7 @@
         <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>103</v>
@@ -14890,10 +14884,10 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14904,10 +14898,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14933,16 +14927,16 @@
         <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -14967,14 +14961,14 @@
         <v>79</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
       </c>
@@ -14991,7 +14985,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15009,7 +15003,7 @@
         <v>79</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>155</v>
@@ -15018,15 +15012,15 @@
         <v>79</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15049,19 +15043,19 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>79</v>
@@ -15089,11 +15083,11 @@
         <v>115</v>
       </c>
       <c r="Y108" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z108" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z108" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15110,7 +15104,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15128,7 +15122,7 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>155</v>
@@ -15142,10 +15136,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15168,16 +15162,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15227,7 +15221,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15236,7 +15230,7 @@
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>103</v>
@@ -15245,10 +15239,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15259,10 +15253,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15285,19 +15279,19 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>79</v>
@@ -15325,11 +15319,11 @@
         <v>115</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>79</v>
       </c>
@@ -15346,7 +15340,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15355,7 +15349,7 @@
         <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>103</v>
@@ -15364,7 +15358,7 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>155</v>
@@ -15378,10 +15372,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15407,13 +15401,13 @@
         <v>82</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15463,7 +15457,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15472,7 +15466,7 @@
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>103</v>
@@ -15481,10 +15475,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15495,13 +15489,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>79</v>
@@ -15523,13 +15517,13 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15580,7 +15574,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15592,16 +15586,16 @@
         <v>79</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15612,10 +15606,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15727,14 +15721,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15756,13 +15750,13 @@
         <v>136</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15844,14 +15838,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15873,16 +15867,16 @@
         <v>136</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N115" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>79</v>
@@ -15931,7 +15925,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -15963,14 +15957,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15992,16 +15986,16 @@
         <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>79</v>
@@ -16050,7 +16044,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16068,10 +16062,10 @@
         <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
@@ -16082,10 +16076,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16108,19 +16102,19 @@
         <v>79</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>615</v>
+        <v>547</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>343</v>
+        <v>548</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>344</v>
+        <v>549</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
@@ -16145,11 +16139,11 @@
         <v>79</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>79</v>
@@ -16167,7 +16161,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16176,7 +16170,7 @@
         <v>91</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>103</v>
@@ -16185,10 +16179,10 @@
         <v>79</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -16199,10 +16193,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16225,17 +16219,17 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>79</v>
@@ -16284,7 +16278,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16302,24 +16296,24 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM118" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16342,16 +16336,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16401,7 +16395,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16422,7 +16416,7 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16433,10 +16427,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16462,13 +16456,13 @@
         <v>121</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16518,7 +16512,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16527,7 +16521,7 @@
         <v>91</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>103</v>
@@ -16536,10 +16530,10 @@
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16550,10 +16544,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16579,16 +16573,16 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -16613,14 +16607,14 @@
         <v>79</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z121" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16637,7 +16631,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16655,7 +16649,7 @@
         <v>79</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>155</v>
@@ -16664,15 +16658,15 @@
         <v>79</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16695,19 +16689,19 @@
         <v>79</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -16735,11 +16729,11 @@
         <v>115</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>79</v>
       </c>
@@ -16756,7 +16750,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16774,7 +16768,7 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>155</v>
@@ -16788,10 +16782,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16814,16 +16808,16 @@
         <v>79</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16873,7 +16867,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16882,7 +16876,7 @@
         <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>103</v>
@@ -16891,10 +16885,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -16905,10 +16899,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16931,19 +16925,19 @@
         <v>79</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -16971,11 +16965,11 @@
         <v>115</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
       </c>
@@ -16992,7 +16986,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17001,7 +16995,7 @@
         <v>91</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>103</v>
@@ -17010,7 +17004,7 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>155</v>
@@ -17024,10 +17018,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17053,13 +17047,13 @@
         <v>79</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17109,7 +17103,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17118,7 +17112,7 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>103</v>
@@ -17127,10 +17121,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17141,13 +17135,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>79</v>
@@ -17169,13 +17163,13 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17226,7 +17220,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17238,16 +17232,16 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
+      <c r="AM126" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17258,10 +17252,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17373,14 +17367,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17402,13 +17396,13 @@
         <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17490,14 +17484,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17519,16 +17513,16 @@
         <v>136</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M129" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N129" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>79</v>
@@ -17577,7 +17571,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17609,14 +17603,14 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -17638,16 +17632,16 @@
         <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -17696,7 +17690,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17714,10 +17708,10 @@
         <v>79</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>79</v>
@@ -17728,10 +17722,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17754,19 +17748,19 @@
         <v>79</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>79</v>
@@ -17795,7 +17789,7 @@
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>79</v>
@@ -17813,7 +17807,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -17831,10 +17825,10 @@
         <v>79</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>79</v>
@@ -17845,10 +17839,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17871,17 +17865,17 @@
         <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -17930,7 +17924,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -17948,24 +17942,24 @@
         <v>79</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM132" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17988,16 +17982,16 @@
         <v>79</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18047,7 +18041,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18068,7 +18062,7 @@
         <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -18079,10 +18073,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18108,13 +18102,13 @@
         <v>121</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -18164,7 +18158,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18173,7 +18167,7 @@
         <v>91</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>103</v>
@@ -18182,10 +18176,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18196,10 +18190,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18225,16 +18219,16 @@
         <v>111</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -18259,14 +18253,14 @@
         <v>79</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y135" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z135" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z135" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA135" t="s" s="2">
         <v>79</v>
       </c>
@@ -18283,7 +18277,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18301,7 +18295,7 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>155</v>
@@ -18310,15 +18304,15 @@
         <v>79</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18341,19 +18335,19 @@
         <v>79</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -18381,11 +18375,11 @@
         <v>115</v>
       </c>
       <c r="Y136" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z136" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z136" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA136" t="s" s="2">
         <v>79</v>
       </c>
@@ -18402,7 +18396,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18420,7 +18414,7 @@
         <v>79</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>155</v>
@@ -18434,10 +18428,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18460,16 +18454,16 @@
         <v>79</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18519,7 +18513,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18528,7 +18522,7 @@
         <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>103</v>
@@ -18537,10 +18531,10 @@
         <v>79</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM137" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>79</v>
@@ -18551,10 +18545,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18577,19 +18571,19 @@
         <v>79</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -18617,11 +18611,11 @@
         <v>115</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z138" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z138" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
       </c>
@@ -18638,7 +18632,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18647,7 +18641,7 @@
         <v>91</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>103</v>
@@ -18656,7 +18650,7 @@
         <v>79</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>155</v>
@@ -18670,10 +18664,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18696,16 +18690,16 @@
         <v>79</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18755,7 +18749,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -18764,7 +18758,7 @@
         <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>103</v>
@@ -18773,10 +18767,10 @@
         <v>79</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>79</v>
@@ -18787,10 +18781,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18902,14 +18896,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -18931,13 +18925,13 @@
         <v>136</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -19019,14 +19013,14 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19048,16 +19042,16 @@
         <v>136</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M142" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N142" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>79</v>
@@ -19106,7 +19100,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19138,14 +19132,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19167,16 +19161,16 @@
         <v>151</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -19225,7 +19219,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19243,10 +19237,10 @@
         <v>79</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM143" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>79</v>
@@ -19257,10 +19251,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19283,19 +19277,19 @@
         <v>79</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>79</v>
@@ -19324,7 +19318,7 @@
       </c>
       <c r="Y144" s="2"/>
       <c r="Z144" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>79</v>
@@ -19342,7 +19336,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19360,10 +19354,10 @@
         <v>79</v>
       </c>
       <c r="AL144" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM144" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>79</v>
@@ -19374,10 +19368,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19400,17 +19394,17 @@
         <v>79</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>79</v>
@@ -19459,7 +19453,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19477,24 +19471,24 @@
         <v>79</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM145" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM145" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN145" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19517,16 +19511,16 @@
         <v>79</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19576,7 +19570,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19597,7 +19591,7 @@
         <v>79</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>79</v>
@@ -19608,10 +19602,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19637,13 +19631,13 @@
         <v>121</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19693,7 +19687,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -19702,7 +19696,7 @@
         <v>91</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>103</v>
@@ -19711,10 +19705,10 @@
         <v>79</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>79</v>
@@ -19725,10 +19719,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19754,16 +19748,16 @@
         <v>111</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -19788,14 +19782,14 @@
         <v>79</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y148" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z148" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z148" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA148" t="s" s="2">
         <v>79</v>
       </c>
@@ -19812,7 +19806,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -19830,7 +19824,7 @@
         <v>79</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>155</v>
@@ -19839,15 +19833,15 @@
         <v>79</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19870,19 +19864,19 @@
         <v>79</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -19910,11 +19904,11 @@
         <v>115</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z149" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z149" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA149" t="s" s="2">
         <v>79</v>
       </c>
@@ -19931,7 +19925,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -19949,7 +19943,7 @@
         <v>79</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>155</v>
@@ -19963,10 +19957,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19989,16 +19983,16 @@
         <v>79</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20048,7 +20042,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20057,7 +20051,7 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>103</v>
@@ -20066,10 +20060,10 @@
         <v>79</v>
       </c>
       <c r="AL150" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
@@ -20080,10 +20074,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20106,19 +20100,19 @@
         <v>79</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>79</v>
@@ -20146,11 +20140,11 @@
         <v>115</v>
       </c>
       <c r="Y151" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z151" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z151" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA151" t="s" s="2">
         <v>79</v>
       </c>
@@ -20167,7 +20161,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20176,7 +20170,7 @@
         <v>91</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>103</v>
@@ -20185,7 +20179,7 @@
         <v>79</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>155</v>
@@ -20199,10 +20193,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20228,13 +20222,13 @@
         <v>79</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20284,7 +20278,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20293,7 +20287,7 @@
         <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>103</v>
@@ -20302,10 +20296,10 @@
         <v>79</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
@@ -20316,13 +20310,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -20344,13 +20338,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20401,7 +20395,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -20413,16 +20407,16 @@
         <v>79</v>
       </c>
       <c r="AJ153" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL153" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL153" t="s" s="2">
+      <c r="AM153" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>79</v>
@@ -20433,10 +20427,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20548,14 +20542,14 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
@@ -20577,13 +20571,13 @@
         <v>136</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -20665,14 +20659,14 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -20694,16 +20688,16 @@
         <v>136</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M156" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N156" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>79</v>
@@ -20752,7 +20746,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -20784,14 +20778,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -20813,16 +20807,16 @@
         <v>151</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>79</v>
@@ -20871,7 +20865,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -20889,10 +20883,10 @@
         <v>79</v>
       </c>
       <c r="AL157" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>79</v>
@@ -20903,10 +20897,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20929,19 +20923,19 @@
         <v>79</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>79</v>
@@ -20951,7 +20945,7 @@
         <v>79</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>79</v>
@@ -20966,14 +20960,14 @@
         <v>79</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y158" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z158" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z158" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA158" t="s" s="2">
         <v>79</v>
       </c>
@@ -20990,7 +20984,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21008,10 +21002,10 @@
         <v>79</v>
       </c>
       <c r="AL158" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>79</v>
@@ -21022,10 +21016,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21048,17 +21042,17 @@
         <v>79</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>79</v>
@@ -21107,7 +21101,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21125,24 +21119,24 @@
         <v>79</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM159" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AN159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21165,16 +21159,16 @@
         <v>79</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21224,7 +21218,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21245,7 +21239,7 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
@@ -21256,10 +21250,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21285,13 +21279,13 @@
         <v>121</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21341,7 +21335,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21350,7 +21344,7 @@
         <v>91</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>103</v>
@@ -21359,10 +21353,10 @@
         <v>79</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
@@ -21373,10 +21367,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21402,16 +21396,16 @@
         <v>111</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -21436,14 +21430,14 @@
         <v>79</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y162" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z162" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z162" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA162" t="s" s="2">
         <v>79</v>
       </c>
@@ -21460,7 +21454,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21478,7 +21472,7 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>155</v>
@@ -21487,15 +21481,15 @@
         <v>79</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21518,19 +21512,19 @@
         <v>79</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -21558,11 +21552,11 @@
         <v>115</v>
       </c>
       <c r="Y163" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z163" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z163" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
       </c>
@@ -21579,7 +21573,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21597,7 +21591,7 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>155</v>
@@ -21611,10 +21605,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21637,16 +21631,16 @@
         <v>79</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -21696,7 +21690,7 @@
         <v>79</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -21705,7 +21699,7 @@
         <v>81</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>103</v>
@@ -21714,10 +21708,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM164" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21728,10 +21722,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21754,19 +21748,19 @@
         <v>79</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>79</v>
@@ -21794,11 +21788,11 @@
         <v>115</v>
       </c>
       <c r="Y165" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z165" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z165" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA165" t="s" s="2">
         <v>79</v>
       </c>
@@ -21815,7 +21809,7 @@
         <v>79</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -21824,7 +21818,7 @@
         <v>91</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>103</v>
@@ -21833,7 +21827,7 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>155</v>
@@ -21847,10 +21841,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21876,13 +21870,13 @@
         <v>79</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -21932,7 +21926,7 @@
         <v>79</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -21941,7 +21935,7 @@
         <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>103</v>
@@ -21950,10 +21944,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="722">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1668,7 +1668,10 @@
   </si>
   <si>
     <t>exists:$this.section}
-exists:$this.entry}</t>
+exists:$this.entry}value:code}</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
@@ -1914,11 +1917,12 @@
     <t>Composition.section:lab-no-subsections.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-codeableconcept}
-</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-lab-study-types</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="18725-2"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Composition.section:lab-no-subsections.author</t>
@@ -1942,7 +1946,7 @@
     <t>Composition.section:lab-no-subsections.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-microbiology)
 </t>
   </si>
   <si>
@@ -2149,6 +2153,120 @@
   </si>
   <si>
     <t>Composition.section:annotations.section</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst</t>
+  </si>
+  <si>
+    <t>lab-mst</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.id</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.title</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="18769-0"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.author</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.text</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-susceptibility)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-mst.section</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt</t>
+  </si>
+  <si>
+    <t>lab-gt</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.id</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.title</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="726528006"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.author</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.text</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-genotyping)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-gt.section</t>
   </si>
 </sst>
 </file>
@@ -2455,7 +2573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO166"/>
+  <dimension ref="A1:AO194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2491,7 +2609,7 @@
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="29.3359375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -13923,7 +14041,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>140</v>
+        <v>534</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>530</v>
@@ -13938,16 +14056,16 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13958,10 +14076,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14073,10 +14191,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14190,10 +14308,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14309,14 +14427,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14338,16 +14456,16 @@
         <v>151</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14396,7 +14514,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14428,10 +14546,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14457,16 +14575,16 @@
         <v>264</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14494,10 +14612,10 @@
         <v>331</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -14515,7 +14633,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14547,10 +14665,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14573,13 +14691,13 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14632,7 +14750,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14664,10 +14782,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14693,13 +14811,13 @@
         <v>526</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14749,7 +14867,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14770,7 +14888,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14781,10 +14899,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14810,13 +14928,13 @@
         <v>121</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14866,7 +14984,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14875,7 +14993,7 @@
         <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>103</v>
@@ -14884,10 +15002,10 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14898,10 +15016,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14927,16 +15045,16 @@
         <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -14964,10 +15082,10 @@
         <v>258</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
@@ -14985,7 +15103,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15003,7 +15121,7 @@
         <v>79</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>155</v>
@@ -15017,10 +15135,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15046,16 +15164,16 @@
         <v>264</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>79</v>
@@ -15083,10 +15201,10 @@
         <v>115</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>79</v>
@@ -15104,7 +15222,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15122,7 +15240,7 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>155</v>
@@ -15136,10 +15254,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15165,13 +15283,13 @@
         <v>526</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15221,7 +15339,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15230,7 +15348,7 @@
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>103</v>
@@ -15239,10 +15357,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15253,10 +15371,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15282,16 +15400,16 @@
         <v>264</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>79</v>
@@ -15319,10 +15437,10 @@
         <v>115</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>79</v>
@@ -15340,7 +15458,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15349,7 +15467,7 @@
         <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>103</v>
@@ -15358,7 +15476,7 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>155</v>
@@ -15372,10 +15490,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15398,16 +15516,16 @@
         <v>79</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15457,7 +15575,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15466,7 +15584,7 @@
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>103</v>
@@ -15475,10 +15593,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15489,20 +15607,20 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>530</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>91</v>
@@ -15520,10 +15638,10 @@
         <v>419</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15586,16 +15704,16 @@
         <v>79</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15606,10 +15724,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15721,10 +15839,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15838,10 +15956,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15957,14 +16075,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15986,16 +16104,16 @@
         <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>79</v>
@@ -16044,7 +16162,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16076,10 +16194,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16102,19 +16220,19 @@
         <v>79</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>613</v>
+        <v>264</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
@@ -16124,7 +16242,7 @@
         <v>79</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>79</v>
@@ -16139,11 +16257,11 @@
         <v>79</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>614</v>
+        <v>344</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>79</v>
@@ -16161,7 +16279,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16196,7 +16314,7 @@
         <v>615</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16219,13 +16337,13 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -16278,7 +16396,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16313,7 +16431,7 @@
         <v>616</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16339,13 +16457,13 @@
         <v>526</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16395,7 +16513,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16416,7 +16534,7 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16430,7 +16548,7 @@
         <v>617</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16459,10 +16577,10 @@
         <v>618</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16512,7 +16630,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16521,7 +16639,7 @@
         <v>91</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>103</v>
@@ -16530,10 +16648,10 @@
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16547,7 +16665,7 @@
         <v>619</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16573,16 +16691,16 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -16610,10 +16728,10 @@
         <v>258</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
@@ -16631,7 +16749,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16767,7 @@
         <v>79</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>155</v>
@@ -16666,7 +16784,7 @@
         <v>620</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16692,16 +16810,16 @@
         <v>264</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -16729,10 +16847,10 @@
         <v>115</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>79</v>
@@ -16750,7 +16868,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16768,7 +16886,7 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>155</v>
@@ -16785,7 +16903,7 @@
         <v>621</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16811,13 +16929,13 @@
         <v>622</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16867,7 +16985,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16876,7 +16994,7 @@
         <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>103</v>
@@ -16885,10 +17003,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -16902,7 +17020,7 @@
         <v>623</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16928,16 +17046,16 @@
         <v>264</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -16965,10 +17083,10 @@
         <v>115</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
@@ -16986,7 +17104,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -16995,7 +17113,7 @@
         <v>91</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>103</v>
@@ -17004,7 +17122,7 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>155</v>
@@ -17021,7 +17139,7 @@
         <v>624</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17047,13 +17165,13 @@
         <v>79</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17103,7 +17221,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17112,7 +17230,7 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>103</v>
@@ -17121,10 +17239,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17232,16 +17350,16 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17255,7 +17373,7 @@
         <v>629</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17370,7 +17488,7 @@
         <v>630</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17487,7 +17605,7 @@
         <v>631</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17606,11 +17724,11 @@
         <v>632</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -17632,16 +17750,16 @@
         <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -17690,7 +17808,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17725,7 +17843,7 @@
         <v>633</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17751,16 +17869,16 @@
         <v>264</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>79</v>
@@ -17807,7 +17925,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -17842,7 +17960,7 @@
         <v>634</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17865,13 +17983,13 @@
         <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17924,7 +18042,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -17959,7 +18077,7 @@
         <v>635</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17985,13 +18103,13 @@
         <v>526</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18041,7 +18159,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18062,7 +18180,7 @@
         <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -18076,7 +18194,7 @@
         <v>636</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18102,13 +18220,13 @@
         <v>121</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -18158,7 +18276,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18167,7 +18285,7 @@
         <v>91</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>103</v>
@@ -18176,10 +18294,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18193,7 +18311,7 @@
         <v>637</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18219,16 +18337,16 @@
         <v>111</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -18256,10 +18374,10 @@
         <v>258</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>79</v>
@@ -18277,7 +18395,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18295,7 +18413,7 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>155</v>
@@ -18312,7 +18430,7 @@
         <v>638</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18338,16 +18456,16 @@
         <v>264</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -18375,10 +18493,10 @@
         <v>115</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>79</v>
@@ -18396,7 +18514,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18414,7 +18532,7 @@
         <v>79</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>155</v>
@@ -18431,7 +18549,7 @@
         <v>639</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18457,13 +18575,13 @@
         <v>526</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18513,7 +18631,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18522,7 +18640,7 @@
         <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>103</v>
@@ -18531,10 +18649,10 @@
         <v>79</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>79</v>
@@ -18548,7 +18666,7 @@
         <v>640</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18574,16 +18692,16 @@
         <v>264</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -18611,10 +18729,10 @@
         <v>115</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
@@ -18632,7 +18750,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18641,7 +18759,7 @@
         <v>91</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>103</v>
@@ -18650,7 +18768,7 @@
         <v>79</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>155</v>
@@ -18667,7 +18785,7 @@
         <v>641</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18693,13 +18811,13 @@
         <v>419</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18749,7 +18867,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -18758,7 +18876,7 @@
         <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>103</v>
@@ -18767,10 +18885,10 @@
         <v>79</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>79</v>
@@ -19139,7 +19257,7 @@
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19161,16 +19279,16 @@
         <v>151</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -19219,7 +19337,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19280,16 +19398,16 @@
         <v>264</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>79</v>
@@ -19336,7 +19454,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19397,10 +19515,10 @@
         <v>654</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -19453,7 +19571,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19514,13 +19632,13 @@
         <v>526</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19570,7 +19688,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19591,7 +19709,7 @@
         <v>79</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>79</v>
@@ -19634,10 +19752,10 @@
         <v>618</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19687,7 +19805,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -19696,7 +19814,7 @@
         <v>91</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>103</v>
@@ -19705,10 +19823,10 @@
         <v>79</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>79</v>
@@ -19748,16 +19866,16 @@
         <v>111</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -19785,10 +19903,10 @@
         <v>258</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>79</v>
@@ -19806,7 +19924,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -19824,7 +19942,7 @@
         <v>79</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>155</v>
@@ -19867,16 +19985,16 @@
         <v>264</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -19904,10 +20022,10 @@
         <v>115</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>79</v>
@@ -19925,7 +20043,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -19943,7 +20061,7 @@
         <v>79</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>155</v>
@@ -19986,13 +20104,13 @@
         <v>665</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20042,7 +20160,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20051,7 +20169,7 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>103</v>
@@ -20060,10 +20178,10 @@
         <v>79</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
@@ -20103,16 +20221,16 @@
         <v>264</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>79</v>
@@ -20140,10 +20258,10 @@
         <v>115</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>79</v>
@@ -20161,7 +20279,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20170,7 +20288,7 @@
         <v>91</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>103</v>
@@ -20179,7 +20297,7 @@
         <v>79</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>155</v>
@@ -20222,13 +20340,13 @@
         <v>79</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20278,7 +20396,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20287,7 +20405,7 @@
         <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>103</v>
@@ -20296,10 +20414,10 @@
         <v>79</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
@@ -20407,16 +20525,16 @@
         <v>79</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>79</v>
@@ -20430,7 +20548,7 @@
         <v>674</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20545,7 +20663,7 @@
         <v>675</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20662,7 +20780,7 @@
         <v>676</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20781,11 +20899,11 @@
         <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -20807,16 +20925,16 @@
         <v>151</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>79</v>
@@ -20865,7 +20983,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -20900,7 +21018,7 @@
         <v>678</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20926,16 +21044,16 @@
         <v>264</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>79</v>
@@ -20963,10 +21081,10 @@
         <v>331</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>79</v>
@@ -20984,7 +21102,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21019,7 +21137,7 @@
         <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21042,13 +21160,13 @@
         <v>79</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -21101,7 +21219,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21136,7 +21254,7 @@
         <v>681</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21162,13 +21280,13 @@
         <v>526</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21218,7 +21336,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21239,7 +21357,7 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
@@ -21253,7 +21371,7 @@
         <v>682</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21279,13 +21397,13 @@
         <v>121</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21335,7 +21453,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21344,7 +21462,7 @@
         <v>91</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>103</v>
@@ -21353,10 +21471,10 @@
         <v>79</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
@@ -21370,7 +21488,7 @@
         <v>683</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21396,16 +21514,16 @@
         <v>111</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -21433,10 +21551,10 @@
         <v>258</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>79</v>
@@ -21454,7 +21572,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21472,7 +21590,7 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>155</v>
@@ -21489,7 +21607,7 @@
         <v>684</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21515,16 +21633,16 @@
         <v>264</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -21552,10 +21670,10 @@
         <v>115</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
@@ -21573,7 +21691,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21591,7 +21709,7 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>155</v>
@@ -21608,7 +21726,7 @@
         <v>685</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21634,13 +21752,13 @@
         <v>526</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -21690,7 +21808,7 @@
         <v>79</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -21699,7 +21817,7 @@
         <v>81</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>103</v>
@@ -21708,10 +21826,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21725,7 +21843,7 @@
         <v>686</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21751,16 +21869,16 @@
         <v>264</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>79</v>
@@ -21788,10 +21906,10 @@
         <v>115</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>79</v>
@@ -21809,7 +21927,7 @@
         <v>79</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -21818,7 +21936,7 @@
         <v>91</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>103</v>
@@ -21827,7 +21945,7 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>155</v>
@@ -21844,7 +21962,7 @@
         <v>687</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21870,13 +21988,13 @@
         <v>79</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -21926,7 +22044,7 @@
         <v>79</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -21935,7 +22053,7 @@
         <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>103</v>
@@ -21944,15 +22062,3311 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO166" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AM166" t="s" s="2">
+      <c r="AK167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO167" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q168" s="2"/>
+      <c r="R168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO168" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O169" s="2"/>
+      <c r="P169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q169" s="2"/>
+      <c r="R169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO169" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q170" s="2"/>
+      <c r="R170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN170" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO170" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q171" s="2"/>
+      <c r="R171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN171" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO171" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q172" s="2"/>
+      <c r="R172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO172" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M173" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N173" s="2"/>
+      <c r="O173" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q173" s="2"/>
+      <c r="R173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO173" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O174" s="2"/>
+      <c r="P174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q174" s="2"/>
+      <c r="R174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO174" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N175" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q175" s="2"/>
+      <c r="R175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM175" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO175" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E176" s="2"/>
+      <c r="F176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q176" s="2"/>
+      <c r="R176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO176" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q177" s="2"/>
+      <c r="R177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM177" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO177" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O178" s="2"/>
+      <c r="P178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q178" s="2"/>
+      <c r="R178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO178" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="P179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO179" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AN166" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO166" t="s" s="2">
+      <c r="O180" s="2"/>
+      <c r="P180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO181" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO182" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO183" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO184" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O185" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO185" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO186" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q187" s="2"/>
+      <c r="R187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO187" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q188" s="2"/>
+      <c r="R188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM188" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN188" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO188" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q189" s="2"/>
+      <c r="R189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM189" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN189" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO189" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O190" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="P190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q190" s="2"/>
+      <c r="R190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO190" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="O191" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="P191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q191" s="2"/>
+      <c r="R191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO191" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q192" s="2"/>
+      <c r="R192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO192" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K193" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M193" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="P193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q193" s="2"/>
+      <c r="R193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X193" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y193" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z193" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL193" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM193" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN193" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO193" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O194" s="2"/>
+      <c r="P194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q194" s="2"/>
+      <c r="R194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF194" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG194" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH194" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI194" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ194" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL194" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM194" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN194" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO194" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="721">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1082,16 +1082,13 @@
     <t>The clinical domain of the laboratory performing the observation (e.g. microbiology, toxicology, chemistry)</t>
   </si>
   <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-studyType-eu-lab</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>Composition.category:specialty</t>
@@ -1410,7 +1407,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1737,7 +1734,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -2582,15 +2579,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.77734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2601,27 +2598,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="29.3359375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="25.1484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7787,7 +7784,7 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>340</v>
@@ -7858,36 +7855,36 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>326</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7906,13 +7903,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>342</v>
@@ -7950,7 +7947,7 @@
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7977,33 +7974,33 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8026,19 +8023,19 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -8087,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8105,24 +8102,24 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8234,10 +8231,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8351,10 +8348,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8468,10 +8465,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8585,10 +8582,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8702,10 +8699,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8819,10 +8816,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8845,17 +8842,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8904,7 +8901,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8919,27 +8916,27 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8962,19 +8959,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -9023,7 +9020,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>91</v>
@@ -9038,27 +9035,27 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9081,17 +9078,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9140,7 +9137,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>91</v>
@@ -9155,27 +9152,27 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9287,10 +9284,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9404,10 +9401,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9521,10 +9518,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9638,10 +9635,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9755,10 +9752,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9872,10 +9869,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9901,13 +9898,13 @@
         <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9957,7 +9954,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>91</v>
@@ -9975,13 +9972,13 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9989,10 +9986,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10018,13 +10015,13 @@
         <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10053,11 +10050,11 @@
         <v>258</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
       </c>
@@ -10074,7 +10071,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10092,13 +10089,13 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10106,10 +10103,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10132,19 +10129,19 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10193,7 +10190,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10211,13 +10208,13 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10225,10 +10222,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10340,10 +10337,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10457,14 +10454,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10486,10 +10483,10 @@
         <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>206</v>
@@ -10544,7 +10541,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10576,10 +10573,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10605,14 +10602,14 @@
         <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10640,11 +10637,11 @@
         <v>258</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10661,7 +10658,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>91</v>
@@ -10679,10 +10676,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10693,10 +10690,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10719,17 +10716,17 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10778,7 +10775,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10796,10 +10793,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10810,10 +10807,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10836,17 +10833,17 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10895,7 +10892,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10913,24 +10910,24 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11042,10 +11039,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11159,10 +11156,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11276,10 +11273,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11393,10 +11390,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11510,10 +11507,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11627,10 +11624,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11653,19 +11650,19 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11714,7 +11711,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11732,13 +11729,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11746,10 +11743,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11861,10 +11858,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11978,10 +11975,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12095,10 +12092,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12212,10 +12209,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12329,10 +12326,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12446,10 +12443,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12472,16 +12469,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12531,7 +12528,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12549,13 +12546,13 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12563,10 +12560,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12678,10 +12675,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12795,14 +12792,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12824,10 +12821,10 @@
         <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>206</v>
@@ -12882,7 +12879,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12914,10 +12911,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12943,13 +12940,13 @@
         <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12978,11 +12975,11 @@
         <v>258</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12999,7 +12996,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>91</v>
@@ -13017,13 +13014,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AN89" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -13031,10 +13028,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13057,13 +13054,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13114,7 +13111,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>91</v>
@@ -13132,13 +13129,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13146,10 +13143,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13172,19 +13169,19 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13233,7 +13230,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13251,13 +13248,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13265,10 +13262,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13380,10 +13377,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13497,14 +13494,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13526,10 +13523,10 @@
         <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>206</v>
@@ -13584,7 +13581,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13616,10 +13613,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13645,13 +13642,13 @@
         <v>264</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13680,11 +13677,11 @@
         <v>331</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13701,7 +13698,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13725,7 +13722,7 @@
         <v>323</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13733,10 +13730,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13762,10 +13759,10 @@
         <v>290</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13816,7 +13813,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13834,13 +13831,13 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13848,10 +13845,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13874,13 +13871,13 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13931,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13949,7 +13946,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>155</v>
@@ -13963,10 +13960,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13989,13 +13986,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14034,17 +14031,17 @@
         <v>79</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14056,16 +14053,16 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -14076,10 +14073,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14191,10 +14188,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14308,14 +14305,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14337,10 +14334,10 @@
         <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>206</v>
@@ -14395,7 +14392,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14427,14 +14424,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14456,16 +14453,16 @@
         <v>151</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -14514,7 +14511,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14532,10 +14529,10 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14546,10 +14543,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14575,16 +14572,16 @@
         <v>264</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14612,11 +14609,11 @@
         <v>331</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14633,7 +14630,7 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14665,10 +14662,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14691,17 +14688,17 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>79</v>
@@ -14750,7 +14747,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14768,24 +14765,24 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14808,16 +14805,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14867,7 +14864,7 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14888,7 +14885,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14899,10 +14896,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14928,13 +14925,13 @@
         <v>121</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14984,7 +14981,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14993,7 +14990,7 @@
         <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>103</v>
@@ -15002,10 +14999,10 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -15016,10 +15013,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15045,16 +15042,16 @@
         <v>111</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N107" t="s" s="2">
+      <c r="O107" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>79</v>
@@ -15082,11 +15079,11 @@
         <v>258</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>79</v>
       </c>
@@ -15103,7 +15100,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15121,7 +15118,7 @@
         <v>79</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>155</v>
@@ -15135,10 +15132,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15164,16 +15161,16 @@
         <v>264</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>79</v>
@@ -15201,11 +15198,11 @@
         <v>115</v>
       </c>
       <c r="Y108" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z108" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z108" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15222,7 +15219,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15240,7 +15237,7 @@
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>155</v>
@@ -15254,10 +15251,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15280,16 +15277,16 @@
         <v>79</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15339,7 +15336,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15348,7 +15345,7 @@
         <v>81</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>103</v>
@@ -15357,10 +15354,10 @@
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>79</v>
@@ -15371,10 +15368,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15400,16 +15397,16 @@
         <v>264</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>79</v>
@@ -15437,11 +15434,11 @@
         <v>115</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>79</v>
       </c>
@@ -15458,7 +15455,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15467,7 +15464,7 @@
         <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>103</v>
@@ -15476,7 +15473,7 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>155</v>
@@ -15490,10 +15487,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15519,13 +15516,13 @@
         <v>79</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15575,7 +15572,7 @@
         <v>79</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15584,7 +15581,7 @@
         <v>81</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>103</v>
@@ -15593,10 +15590,10 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15607,13 +15604,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>79</v>
@@ -15635,13 +15632,13 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15692,7 +15689,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15704,16 +15701,16 @@
         <v>79</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15724,10 +15721,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15839,10 +15836,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15956,14 +15953,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15985,10 +15982,10 @@
         <v>136</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>206</v>
@@ -16043,7 +16040,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16075,14 +16072,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16104,16 +16101,16 @@
         <v>151</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>79</v>
@@ -16162,7 +16159,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16180,10 +16177,10 @@
         <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
@@ -16194,10 +16191,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16223,16 +16220,16 @@
         <v>264</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>79</v>
@@ -16242,7 +16239,7 @@
         <v>79</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>79</v>
@@ -16279,7 +16276,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16311,10 +16308,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16337,17 +16334,17 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>79</v>
@@ -16396,7 +16393,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16414,24 +16411,24 @@
         <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM118" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16454,16 +16451,16 @@
         <v>79</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -16513,7 +16510,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16534,7 +16531,7 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16545,10 +16542,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16574,13 +16571,13 @@
         <v>121</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16630,7 +16627,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16639,7 +16636,7 @@
         <v>91</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>103</v>
@@ -16648,10 +16645,10 @@
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16662,10 +16659,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16691,16 +16688,16 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>79</v>
@@ -16728,11 +16725,11 @@
         <v>258</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z121" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16749,7 +16746,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16767,7 +16764,7 @@
         <v>79</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>155</v>
@@ -16781,10 +16778,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16810,16 +16807,16 @@
         <v>264</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -16847,11 +16844,11 @@
         <v>115</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>79</v>
       </c>
@@ -16868,7 +16865,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16886,7 +16883,7 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>155</v>
@@ -16900,10 +16897,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16926,16 +16923,16 @@
         <v>79</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16985,7 +16982,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16994,7 +16991,7 @@
         <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>103</v>
@@ -17003,10 +17000,10 @@
         <v>79</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -17017,10 +17014,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17046,16 +17043,16 @@
         <v>264</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17083,11 +17080,11 @@
         <v>115</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA124" t="s" s="2">
         <v>79</v>
       </c>
@@ -17104,7 +17101,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17113,7 +17110,7 @@
         <v>91</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>103</v>
@@ -17122,7 +17119,7 @@
         <v>79</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>155</v>
@@ -17136,10 +17133,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17165,13 +17162,13 @@
         <v>79</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17221,7 +17218,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17230,7 +17227,7 @@
         <v>81</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>103</v>
@@ -17239,10 +17236,10 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -17253,13 +17250,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C126" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>79</v>
@@ -17281,13 +17278,13 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17338,7 +17335,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17350,16 +17347,16 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL126" t="s" s="2">
+      <c r="AM126" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -17370,10 +17367,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17485,10 +17482,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17602,14 +17599,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17631,10 +17628,10 @@
         <v>136</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>206</v>
@@ -17689,7 +17686,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17721,18 +17718,18 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>91</v>
@@ -17750,16 +17747,16 @@
         <v>151</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -17808,7 +17805,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17826,10 +17823,10 @@
         <v>79</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>79</v>
@@ -17840,10 +17837,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17851,7 +17848,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>91</v>
@@ -17869,16 +17866,16 @@
         <v>264</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>79</v>
@@ -17925,7 +17922,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -17957,10 +17954,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17983,17 +17980,17 @@
         <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -18042,7 +18039,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18060,24 +18057,24 @@
         <v>79</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM132" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18100,16 +18097,16 @@
         <v>79</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18159,7 +18156,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18180,7 +18177,7 @@
         <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -18191,10 +18188,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18220,13 +18217,13 @@
         <v>121</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -18276,7 +18273,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18285,7 +18282,7 @@
         <v>91</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>103</v>
@@ -18294,10 +18291,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -18308,10 +18305,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18337,16 +18334,16 @@
         <v>111</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -18374,11 +18371,11 @@
         <v>258</v>
       </c>
       <c r="Y135" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z135" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z135" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA135" t="s" s="2">
         <v>79</v>
       </c>
@@ -18395,7 +18392,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18413,7 +18410,7 @@
         <v>79</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>155</v>
@@ -18427,10 +18424,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18456,16 +18453,16 @@
         <v>264</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>79</v>
@@ -18493,11 +18490,11 @@
         <v>115</v>
       </c>
       <c r="Y136" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z136" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z136" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA136" t="s" s="2">
         <v>79</v>
       </c>
@@ -18514,7 +18511,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18532,7 +18529,7 @@
         <v>79</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>155</v>
@@ -18546,10 +18543,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18572,16 +18569,16 @@
         <v>79</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18631,7 +18628,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18640,7 +18637,7 @@
         <v>81</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>103</v>
@@ -18649,10 +18646,10 @@
         <v>79</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM137" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>79</v>
@@ -18663,10 +18660,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18692,16 +18689,16 @@
         <v>264</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -18729,11 +18726,11 @@
         <v>115</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z138" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z138" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
       </c>
@@ -18750,7 +18747,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18759,7 +18756,7 @@
         <v>91</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>103</v>
@@ -18768,7 +18765,7 @@
         <v>79</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>155</v>
@@ -18782,10 +18779,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18808,16 +18805,16 @@
         <v>79</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18867,7 +18864,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -18876,7 +18873,7 @@
         <v>81</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>103</v>
@@ -18885,10 +18882,10 @@
         <v>79</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>79</v>
@@ -18899,10 +18896,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19014,10 +19011,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19131,14 +19128,14 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -19160,10 +19157,10 @@
         <v>136</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>206</v>
@@ -19218,7 +19215,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19250,14 +19247,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19279,16 +19276,16 @@
         <v>151</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -19337,7 +19334,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19355,10 +19352,10 @@
         <v>79</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM143" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>79</v>
@@ -19369,10 +19366,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19398,16 +19395,16 @@
         <v>264</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>79</v>
@@ -19454,7 +19451,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19486,10 +19483,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19512,17 +19509,17 @@
         <v>79</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>79</v>
@@ -19571,7 +19568,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19589,24 +19586,24 @@
         <v>79</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM145" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM145" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN145" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19629,16 +19626,16 @@
         <v>79</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19688,7 +19685,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19709,7 +19706,7 @@
         <v>79</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>79</v>
@@ -19720,10 +19717,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B147" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19749,13 +19746,13 @@
         <v>121</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19805,7 +19802,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -19814,7 +19811,7 @@
         <v>91</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>103</v>
@@ -19823,10 +19820,10 @@
         <v>79</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>79</v>
@@ -19837,10 +19834,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19866,16 +19863,16 @@
         <v>111</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -19903,11 +19900,11 @@
         <v>258</v>
       </c>
       <c r="Y148" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z148" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z148" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA148" t="s" s="2">
         <v>79</v>
       </c>
@@ -19924,7 +19921,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -19942,7 +19939,7 @@
         <v>79</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>155</v>
@@ -19956,10 +19953,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B149" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19985,16 +19982,16 @@
         <v>264</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -20022,11 +20019,11 @@
         <v>115</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z149" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z149" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA149" t="s" s="2">
         <v>79</v>
       </c>
@@ -20043,7 +20040,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20061,7 +20058,7 @@
         <v>79</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>155</v>
@@ -20075,10 +20072,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20101,16 +20098,16 @@
         <v>79</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20160,7 +20157,7 @@
         <v>79</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20169,7 +20166,7 @@
         <v>81</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>103</v>
@@ -20178,10 +20175,10 @@
         <v>79</v>
       </c>
       <c r="AL150" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>79</v>
@@ -20192,10 +20189,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20221,16 +20218,16 @@
         <v>264</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>79</v>
@@ -20258,11 +20255,11 @@
         <v>115</v>
       </c>
       <c r="Y151" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z151" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z151" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA151" t="s" s="2">
         <v>79</v>
       </c>
@@ -20279,7 +20276,7 @@
         <v>79</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20288,7 +20285,7 @@
         <v>91</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>103</v>
@@ -20297,7 +20294,7 @@
         <v>79</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>155</v>
@@ -20311,10 +20308,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20340,13 +20337,13 @@
         <v>79</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20396,7 +20393,7 @@
         <v>79</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20405,7 +20402,7 @@
         <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>103</v>
@@ -20414,10 +20411,10 @@
         <v>79</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>79</v>
@@ -20428,13 +20425,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -20456,13 +20453,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20513,7 +20510,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -20525,16 +20522,16 @@
         <v>79</v>
       </c>
       <c r="AJ153" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL153" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK153" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL153" t="s" s="2">
+      <c r="AM153" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>79</v>
@@ -20545,10 +20542,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20660,10 +20657,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20777,14 +20774,14 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -20806,10 +20803,10 @@
         <v>136</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>206</v>
@@ -20864,7 +20861,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -20896,18 +20893,18 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>91</v>
@@ -20925,16 +20922,16 @@
         <v>151</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>79</v>
@@ -20983,7 +20980,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21001,10 +20998,10 @@
         <v>79</v>
       </c>
       <c r="AL157" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>79</v>
@@ -21015,10 +21012,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21026,7 +21023,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>91</v>
@@ -21044,16 +21041,16 @@
         <v>264</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>79</v>
@@ -21063,7 +21060,7 @@
         <v>79</v>
       </c>
       <c r="S158" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>79</v>
@@ -21081,11 +21078,11 @@
         <v>331</v>
       </c>
       <c r="Y158" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z158" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z158" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA158" t="s" s="2">
         <v>79</v>
       </c>
@@ -21102,7 +21099,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21134,10 +21131,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21160,17 +21157,17 @@
         <v>79</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>79</v>
@@ -21219,7 +21216,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21237,24 +21234,24 @@
         <v>79</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM159" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21277,16 +21274,16 @@
         <v>79</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21336,7 +21333,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21357,7 +21354,7 @@
         <v>79</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>79</v>
@@ -21368,10 +21365,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21397,13 +21394,13 @@
         <v>121</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21453,7 +21450,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21462,7 +21459,7 @@
         <v>91</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>103</v>
@@ -21471,10 +21468,10 @@
         <v>79</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>79</v>
@@ -21485,10 +21482,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21514,16 +21511,16 @@
         <v>111</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -21551,11 +21548,11 @@
         <v>258</v>
       </c>
       <c r="Y162" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z162" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z162" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA162" t="s" s="2">
         <v>79</v>
       </c>
@@ -21572,7 +21569,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21590,7 +21587,7 @@
         <v>79</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>155</v>
@@ -21604,10 +21601,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21633,16 +21630,16 @@
         <v>264</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -21670,11 +21667,11 @@
         <v>115</v>
       </c>
       <c r="Y163" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z163" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z163" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
       </c>
@@ -21691,7 +21688,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21709,7 +21706,7 @@
         <v>79</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>155</v>
@@ -21723,10 +21720,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21749,16 +21746,16 @@
         <v>79</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -21808,7 +21805,7 @@
         <v>79</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -21817,7 +21814,7 @@
         <v>81</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>103</v>
@@ -21826,10 +21823,10 @@
         <v>79</v>
       </c>
       <c r="AL164" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM164" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>79</v>
@@ -21840,10 +21837,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21869,16 +21866,16 @@
         <v>264</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>79</v>
@@ -21906,11 +21903,11 @@
         <v>115</v>
       </c>
       <c r="Y165" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z165" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z165" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA165" t="s" s="2">
         <v>79</v>
       </c>
@@ -21927,7 +21924,7 @@
         <v>79</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -21936,7 +21933,7 @@
         <v>91</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>103</v>
@@ -21945,7 +21942,7 @@
         <v>79</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>155</v>
@@ -21959,10 +21956,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21988,13 +21985,13 @@
         <v>79</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -22044,7 +22041,7 @@
         <v>79</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22053,7 +22050,7 @@
         <v>81</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>103</v>
@@ -22062,10 +22059,10 @@
         <v>79</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>79</v>
@@ -22076,13 +22073,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>79</v>
@@ -22104,13 +22101,13 @@
         <v>79</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22161,7 +22158,7 @@
         <v>79</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22173,16 +22170,16 @@
         <v>79</v>
       </c>
       <c r="AJ167" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL167" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK167" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL167" t="s" s="2">
+      <c r="AM167" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>79</v>
@@ -22193,10 +22190,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22308,10 +22305,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22425,14 +22422,14 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -22454,10 +22451,10 @@
         <v>136</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>206</v>
@@ -22512,7 +22509,7 @@
         <v>79</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -22544,14 +22541,14 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
@@ -22573,16 +22570,16 @@
         <v>151</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>79</v>
@@ -22631,7 +22628,7 @@
         <v>79</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -22649,10 +22646,10 @@
         <v>79</v>
       </c>
       <c r="AL171" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM171" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>79</v>
@@ -22663,10 +22660,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22692,16 +22689,16 @@
         <v>264</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>79</v>
@@ -22711,7 +22708,7 @@
         <v>79</v>
       </c>
       <c r="S172" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>79</v>
@@ -22729,11 +22726,11 @@
         <v>331</v>
       </c>
       <c r="Y172" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z172" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z172" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA172" t="s" s="2">
         <v>79</v>
       </c>
@@ -22750,7 +22747,7 @@
         <v>79</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -22782,10 +22779,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22808,17 +22805,17 @@
         <v>79</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>79</v>
@@ -22867,7 +22864,7 @@
         <v>79</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -22885,24 +22882,24 @@
         <v>79</v>
       </c>
       <c r="AL173" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM173" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM173" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22925,16 +22922,16 @@
         <v>79</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -22984,7 +22981,7 @@
         <v>79</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23005,7 +23002,7 @@
         <v>79</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>79</v>
@@ -23016,10 +23013,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23045,13 +23042,13 @@
         <v>121</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23101,7 +23098,7 @@
         <v>79</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23110,7 +23107,7 @@
         <v>91</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>103</v>
@@ -23119,10 +23116,10 @@
         <v>79</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>79</v>
@@ -23133,10 +23130,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23162,16 +23159,16 @@
         <v>111</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>79</v>
@@ -23199,11 +23196,11 @@
         <v>258</v>
       </c>
       <c r="Y176" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z176" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z176" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA176" t="s" s="2">
         <v>79</v>
       </c>
@@ -23220,7 +23217,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23238,7 +23235,7 @@
         <v>79</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>155</v>
@@ -23252,10 +23249,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23281,16 +23278,16 @@
         <v>264</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>79</v>
@@ -23318,11 +23315,11 @@
         <v>115</v>
       </c>
       <c r="Y177" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z177" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z177" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA177" t="s" s="2">
         <v>79</v>
       </c>
@@ -23339,7 +23336,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23357,7 +23354,7 @@
         <v>79</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>155</v>
@@ -23371,10 +23368,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23397,16 +23394,16 @@
         <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23456,7 +23453,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23465,7 +23462,7 @@
         <v>81</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>103</v>
@@ -23474,10 +23471,10 @@
         <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM178" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>79</v>
@@ -23488,10 +23485,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23517,16 +23514,16 @@
         <v>264</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -23554,11 +23551,11 @@
         <v>115</v>
       </c>
       <c r="Y179" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z179" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z179" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA179" t="s" s="2">
         <v>79</v>
       </c>
@@ -23575,7 +23572,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -23584,7 +23581,7 @@
         <v>91</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>103</v>
@@ -23593,7 +23590,7 @@
         <v>79</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>155</v>
@@ -23607,10 +23604,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23636,13 +23633,13 @@
         <v>79</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
@@ -23692,7 +23689,7 @@
         <v>79</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23701,7 +23698,7 @@
         <v>81</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>103</v>
@@ -23710,10 +23707,10 @@
         <v>79</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>79</v>
@@ -23724,13 +23721,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C181" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>79</v>
@@ -23752,13 +23749,13 @@
         <v>79</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -23809,7 +23806,7 @@
         <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -23821,16 +23818,16 @@
         <v>79</v>
       </c>
       <c r="AJ181" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL181" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AK181" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL181" t="s" s="2">
+      <c r="AM181" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM181" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>79</v>
@@ -23841,10 +23838,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23956,10 +23953,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24073,14 +24070,14 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -24102,10 +24099,10 @@
         <v>136</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>206</v>
@@ -24160,7 +24157,7 @@
         <v>79</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24192,14 +24189,14 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -24221,16 +24218,16 @@
         <v>151</v>
       </c>
       <c r="L185" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N185" t="s" s="2">
+      <c r="O185" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>79</v>
@@ -24279,7 +24276,7 @@
         <v>79</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -24297,10 +24294,10 @@
         <v>79</v>
       </c>
       <c r="AL185" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>79</v>
@@ -24311,10 +24308,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24340,16 +24337,16 @@
         <v>264</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>79</v>
@@ -24359,7 +24356,7 @@
         <v>79</v>
       </c>
       <c r="S186" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T186" t="s" s="2">
         <v>79</v>
@@ -24377,11 +24374,11 @@
         <v>331</v>
       </c>
       <c r="Y186" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z186" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Z186" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="AA186" t="s" s="2">
         <v>79</v>
       </c>
@@ -24398,7 +24395,7 @@
         <v>79</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24430,10 +24427,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24456,17 +24453,17 @@
         <v>79</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>79</v>
@@ -24515,7 +24512,7 @@
         <v>79</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -24533,24 +24530,24 @@
         <v>79</v>
       </c>
       <c r="AL187" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM187" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM187" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AN187" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24573,16 +24570,16 @@
         <v>79</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -24632,7 +24629,7 @@
         <v>79</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -24653,7 +24650,7 @@
         <v>79</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>79</v>
@@ -24664,10 +24661,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24693,13 +24690,13 @@
         <v>121</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -24749,7 +24746,7 @@
         <v>79</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -24758,7 +24755,7 @@
         <v>91</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>103</v>
@@ -24767,10 +24764,10 @@
         <v>79</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>79</v>
@@ -24781,10 +24778,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24810,16 +24807,16 @@
         <v>111</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N190" t="s" s="2">
+      <c r="O190" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>79</v>
@@ -24847,11 +24844,11 @@
         <v>258</v>
       </c>
       <c r="Y190" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z190" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z190" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AA190" t="s" s="2">
         <v>79</v>
       </c>
@@ -24868,7 +24865,7 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -24886,7 +24883,7 @@
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>155</v>
@@ -24900,10 +24897,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24929,16 +24926,16 @@
         <v>264</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="N191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -24966,11 +24963,11 @@
         <v>115</v>
       </c>
       <c r="Y191" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z191" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z191" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="AA191" t="s" s="2">
         <v>79</v>
       </c>
@@ -24987,7 +24984,7 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25005,7 +25002,7 @@
         <v>79</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>155</v>
@@ -25019,10 +25016,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25045,16 +25042,16 @@
         <v>79</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25104,7 +25101,7 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25113,7 +25110,7 @@
         <v>81</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>103</v>
@@ -25122,10 +25119,10 @@
         <v>79</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM192" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>79</v>
@@ -25136,10 +25133,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25165,16 +25162,16 @@
         <v>264</v>
       </c>
       <c r="L193" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="N193" t="s" s="2">
+      <c r="O193" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>79</v>
@@ -25202,11 +25199,11 @@
         <v>115</v>
       </c>
       <c r="Y193" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z193" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z193" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="AA193" t="s" s="2">
         <v>79</v>
       </c>
@@ -25223,7 +25220,7 @@
         <v>79</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -25232,7 +25229,7 @@
         <v>91</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>103</v>
@@ -25241,7 +25238,7 @@
         <v>79</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>155</v>
@@ -25255,10 +25252,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25284,13 +25281,13 @@
         <v>79</v>
       </c>
       <c r="L194" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -25340,7 +25337,7 @@
         <v>79</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -25349,7 +25346,7 @@
         <v>81</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>103</v>
@@ -25358,10 +25355,10 @@
         <v>79</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7240" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7763" uniqueCount="738">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -860,7 +860,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -940,7 +940,7 @@
     <t>Composition.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2199,7 +2199,7 @@
     <t>Composition.section:lab-mst.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-susceptibility)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-susceptibility-strict)
 </t>
   </si>
   <si>
@@ -2256,7 +2256,7 @@
     <t>Composition.section:lab-gt.entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-genotyping)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-laboratory-genotyping-strict)
 </t>
   </si>
   <si>
@@ -2264,6 +2264,63 @@
   </si>
   <si>
     <t>Composition.section:lab-gt.section</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero</t>
+  </si>
+  <si>
+    <t>lab-sero</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.id</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.extension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.title</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="18727-8"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.author</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.focus</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.text</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.mode</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-results-hiv-recency-strict)
+</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.emptyReason</t>
+  </si>
+  <si>
+    <t>Composition.section:lab-sero.section</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO194"/>
+  <dimension ref="A1:AO208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -25367,6 +25424,1654 @@
         <v>79</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K195" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q195" s="2"/>
+      <c r="R195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF195" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG195" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ195" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AK195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL195" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM195" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO195" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q196" s="2"/>
+      <c r="R196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL196" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN196" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO196" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K197" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q197" s="2"/>
+      <c r="R197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF197" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG197" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH197" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ197" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL197" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN197" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO197" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="E198" s="2"/>
+      <c r="F198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I198" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K198" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L198" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q198" s="2"/>
+      <c r="R198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF198" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ198" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL198" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO198" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G199" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K199" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O199" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="P199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q199" s="2"/>
+      <c r="R199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF199" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG199" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH199" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ199" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL199" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM199" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN199" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO199" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G200" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K200" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L200" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O200" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="P200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q200" s="2"/>
+      <c r="R200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S200" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="T200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X200" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y200" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF200" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG200" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH200" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ200" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL200" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM200" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO200" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K201" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L201" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N201" s="2"/>
+      <c r="O201" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q201" s="2"/>
+      <c r="R201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ201" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL201" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM201" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN201" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO201" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G202" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K202" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q202" s="2"/>
+      <c r="R202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ202" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM202" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AN202" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO202" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K203" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O203" s="2"/>
+      <c r="P203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q203" s="2"/>
+      <c r="R203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF203" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH203" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI203" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AJ203" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL203" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM203" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN203" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO203" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G204" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K204" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q204" s="2"/>
+      <c r="R204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X204" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y204" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ204" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL204" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM204" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN204" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO204" t="s" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K205" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="P205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q205" s="2"/>
+      <c r="R205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X205" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y205" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z205" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL205" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM205" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN205" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO205" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="F206" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G206" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K206" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O206" s="2"/>
+      <c r="P206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q206" s="2"/>
+      <c r="R206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF206" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AG206" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH206" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI206" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AJ206" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL206" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM206" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AN206" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO206" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G207" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K207" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="P207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q207" s="2"/>
+      <c r="R207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X207" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y207" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z207" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AA207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF207" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH207" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI207" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AJ207" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL207" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM207" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN207" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO207" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M208" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O208" s="2"/>
+      <c r="P208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF208" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI208" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AJ208" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL208" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM208" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO208" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
